--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl22-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl22-Ackr2.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7577956666666666</v>
+        <v>1.945012333333333</v>
       </c>
       <c r="H2">
-        <v>2.273387</v>
+        <v>5.835037</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4144298617491111</v>
+        <v>1.063705201626889</v>
       </c>
       <c r="R2">
-        <v>3.729868755742</v>
+        <v>9.573346814641999</v>
       </c>
       <c r="S2">
         <v>1</v>
